--- a/Tables/aq_hmf_metrics_outlet_max_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_max_30_95.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -559,10 +559,10 @@
         <v>0.7730666110289665</v>
       </c>
       <c r="F2" t="n">
-        <v>93.333</v>
+        <v>80</v>
       </c>
       <c r="G2" t="n">
-        <v>6.434782608695652</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="H2" t="n">
         <v>239</v>
@@ -589,7 +589,7 @@
         <v>0.1213746128489664</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0788531298553152</v>
+        <v>0.10520274848832</v>
       </c>
       <c r="Q2" t="n">
         <v>0.044711168107536</v>
@@ -601,7 +601,7 @@
         <v>0.11376576290016</v>
       </c>
       <c r="T2" t="n">
-        <v>0.187897001951232</v>
+        <v>0.175664124220032</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
@@ -1351,10 +1351,10 @@
         <v>0.06507890952998401</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.114866721895968</v>
+        <v>0.176031110551968</v>
       </c>
       <c r="R13" t="n">
-        <v>0.042040323136224</v>
+        <v>0.208203578985024</v>
       </c>
       <c r="S13" t="n">
         <v>0.745471568939328</v>
@@ -1447,10 +1447,10 @@
         <v>2.769605070861888</v>
       </c>
       <c r="C15" t="n">
-        <v>23.78260869565218</v>
+        <v>35.8</v>
       </c>
       <c r="D15" t="n">
-        <v>10.19057971014493</v>
+        <v>13.58126984126984</v>
       </c>
       <c r="E15" t="n">
         <v>0.6463243861869459</v>
@@ -1459,10 +1459,10 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>9.724137931034482</v>
+        <v>8.482758620689655</v>
       </c>
       <c r="H15" t="n">
-        <v>212.2307692307692</v>
+        <v>214</v>
       </c>
       <c r="I15" t="n">
         <v>0.9012807916110277</v>
@@ -1495,7 +1495,7 @@
         <v>0.270101940304896</v>
       </c>
       <c r="S15" t="n">
-        <v>0.3608698930704</v>
+        <v>0.443319488978688</v>
       </c>
       <c r="T15" t="n">
         <v>0.5740555895314037</v>
@@ -1927,46 +1927,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.240391560347805</v>
+        <v>0.596291625007344</v>
       </c>
       <c r="C22" t="n">
-        <v>49.45454545454545</v>
+        <v>54.7</v>
       </c>
       <c r="D22" t="n">
-        <v>14.56017316017316</v>
+        <v>28.63333333333333</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4010855580459909</v>
+        <v>0.292984217705424</v>
       </c>
       <c r="F22" t="n">
-        <v>36.667</v>
+        <v>63.333</v>
       </c>
       <c r="G22" t="n">
-        <v>3.636363636363636</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="H22" t="n">
-        <v>208.6363636363636</v>
+        <v>237.8333333333333</v>
       </c>
       <c r="I22" t="n">
-        <v>0.442585516314816</v>
+        <v>0.1509353618864112</v>
       </c>
       <c r="J22" t="n">
-        <v>0.190894056995376</v>
+        <v>0.264597145325856</v>
       </c>
       <c r="K22" t="n">
-        <v>0.4448282105655361</v>
+        <v>0.5079906359176319</v>
       </c>
       <c r="L22" t="n">
-        <v>0.619717585862592</v>
+        <v>0.182636864526816</v>
       </c>
       <c r="M22" t="n">
-        <v>0.489280158168768</v>
+        <v>0.1029785889008291</v>
       </c>
       <c r="N22" t="n">
-        <v>0.19511439981264</v>
+        <v>0.2029679073160704</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>0.024832741794336</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0550479497904</v>
+        <v>0.009289647349073298</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>

--- a/Tables/aq_hmf_metrics_outlet_max_30_95.xlsx
+++ b/Tables/aq_hmf_metrics_outlet_max_30_95.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,7 +543,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Basin and Range basin-fill aquifers</t>
+          <t>Arizona Alluvial</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -565,7 +565,7 @@
         <v>6.583333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>239</v>
+        <v>200.5714285714286</v>
       </c>
       <c r="I2" t="n">
         <v>0.1780617682553472</v>
@@ -612,65 +612,65 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Biscayne aquifer</t>
+          <t>Basin and Range basin-fill aquifers</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03225565200162854</v>
+        <v>0.7948353082106304</v>
       </c>
       <c r="C3" t="n">
-        <v>57.33333333333334</v>
+        <v>106</v>
       </c>
       <c r="D3" t="n">
-        <v>17.51175213675214</v>
+        <v>63.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01405086110472437</v>
+        <v>0.4218184588121424</v>
       </c>
       <c r="F3" t="n">
-        <v>90</v>
+        <v>86.667</v>
       </c>
       <c r="G3" t="n">
-        <v>5.962962962962963</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>243.2307692307692</v>
+        <v>253.75</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003677447703553358</v>
+        <v>0.7075985794835328</v>
       </c>
       <c r="J3" t="n">
-        <v>0.002815763796167613</v>
+        <v>0.4121011850086656</v>
       </c>
       <c r="K3" t="n">
-        <v>0.009756943278405237</v>
+        <v>0.3855619567708272</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01151684662133387</v>
+        <v>0.2178871249970419</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002852707086915893</v>
+        <v>0.2804509548654912</v>
       </c>
       <c r="N3" t="n">
-        <v>0.005269740233434987</v>
+        <v>0.1362253264146432</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01305492711473683</v>
+        <v>0.038900551185216</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01894138787899029</v>
+        <v>0.02420213694729276</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01839922673794344</v>
+        <v>0.018593974151424</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0255593747315695</v>
+        <v>0.06405134780056337</v>
       </c>
       <c r="S3" t="n">
-        <v>0.01040989934061737</v>
+        <v>0.09370506670876533</v>
       </c>
       <c r="T3" t="n">
-        <v>0.007784269415471836</v>
+        <v>0.04044841798080392</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
@@ -681,65 +681,65 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>California Coastal Basin aquifers</t>
+          <t>Biscayne aquifer</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.451195695158203</v>
+        <v>0.03225565200162854</v>
       </c>
       <c r="C4" t="n">
-        <v>30.44444444444444</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D4" t="n">
-        <v>11.13888888888889</v>
+        <v>17.51175213675214</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3837026265692987</v>
+        <v>0.01405086110472437</v>
       </c>
       <c r="F4" t="n">
-        <v>100</v>
+        <v>43.333</v>
       </c>
       <c r="G4" t="n">
-        <v>9.033333333333333</v>
+        <v>3.230769230769231</v>
       </c>
       <c r="H4" t="n">
-        <v>148.0869565217391</v>
+        <v>243.2307692307692</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7589032686881857</v>
+        <v>0.002480827603887396</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6645062288624256</v>
+        <v>0.001821067731584686</v>
       </c>
       <c r="K4" t="n">
-        <v>0.59381883615168</v>
+        <v>0.009756943278405237</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1335340933137792</v>
+        <v>0.01151684662133387</v>
       </c>
       <c r="M4" t="n">
-        <v>0.04887034653614401</v>
+        <v>0.002852707086915893</v>
       </c>
       <c r="N4" t="n">
-        <v>0.041836441840704</v>
+        <v>0.002501623496030456</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00041958770618016</v>
+        <v>0.01305492711473683</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.01894138787899029</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.016636713714432</v>
+        <v>0.01839922673794344</v>
       </c>
       <c r="R4" t="n">
-        <v>0.07082836206364801</v>
+        <v>0.0255593747315695</v>
       </c>
       <c r="S4" t="n">
-        <v>0.371145510364608</v>
+        <v>0.003253945476499244</v>
       </c>
       <c r="T4" t="n">
-        <v>0.6795445132199808</v>
+        <v>0.004524533710179937</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
@@ -750,65 +750,65 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Cambrian-Ordovician aquifer system</t>
+          <t>California Coastal Basin aquifers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.663434869140399</v>
+        <v>1.417374611203219</v>
       </c>
       <c r="C5" t="n">
-        <v>29.88888888888889</v>
+        <v>42.07692307692308</v>
       </c>
       <c r="D5" t="n">
-        <v>14.13055555555555</v>
+        <v>22.17948717948718</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8745611349613118</v>
+        <v>0.2519624558073166</v>
       </c>
       <c r="F5" t="n">
-        <v>93.10300000000001</v>
+        <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>5.37037037037037</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>219.3333333333333</v>
+        <v>162.8461538461538</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.7589032686881857</v>
       </c>
       <c r="J5" t="n">
-        <v>0.124530695303616</v>
+        <v>0.478855998787824</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3852255526332197</v>
+        <v>0.3318457810639528</v>
       </c>
       <c r="L5" t="n">
-        <v>1.287176270735767</v>
+        <v>0.104006644887936</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6693971843101855</v>
+        <v>0.04887034653614401</v>
       </c>
       <c r="N5" t="n">
-        <v>0.5917147811819143</v>
+        <v>0.0003274741368642249</v>
       </c>
       <c r="O5" t="n">
-        <v>0.7816350137321888</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04778977566988801</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1705201991340627</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.3622807516353992</v>
+        <v>0.014001547969836</v>
       </c>
       <c r="S5" t="n">
-        <v>0.016147398605184</v>
+        <v>0.032478290376336</v>
       </c>
       <c r="T5" t="n">
-        <v>0.127955901068352</v>
+        <v>0.6795445132199808</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
@@ -819,65 +819,65 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Central Valley aquifer system</t>
+          <t>Cambrian-Ordovician aquifer system</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.275791284342316</v>
+        <v>1.663434869140399</v>
       </c>
       <c r="C6" t="n">
-        <v>68.5</v>
+        <v>30.44444444444444</v>
       </c>
       <c r="D6" t="n">
-        <v>34.27291666666667</v>
+        <v>16.43452380952381</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7306720040936679</v>
+        <v>0.8745611349613118</v>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>2.6</v>
+        <v>8.533333333333333</v>
       </c>
       <c r="H6" t="n">
-        <v>173</v>
+        <v>228.7037037037037</v>
       </c>
       <c r="I6" t="n">
-        <v>0.487194743774592</v>
+        <v>0.05199136140796416</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9718491266070073</v>
+        <v>0.206001660993408</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2536155162311629</v>
+        <v>0.5920712821900801</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4433398771082422</v>
+        <v>1.287176270735767</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2909296379300391</v>
+        <v>0.6693971843101855</v>
       </c>
       <c r="N6" t="n">
-        <v>0.03668395374032331</v>
+        <v>0.5917147811819143</v>
       </c>
       <c r="O6" t="n">
-        <v>0.006948274551321956</v>
+        <v>0.7816350137321888</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>0.09393626809788543</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>0.2086602730869893</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.43977195443664</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.09982028228659201</v>
       </c>
       <c r="T6" t="n">
-        <v>0.180190288980576</v>
+        <v>0.159272068060224</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
@@ -888,65 +888,65 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Coastal lowlands aquifer system</t>
+          <t>Central South High Plains</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.708786224515866</v>
+        <v>0.2973740157818556</v>
       </c>
       <c r="C7" t="n">
-        <v>36.53333333333333</v>
+        <v>34.0625</v>
       </c>
       <c r="D7" t="n">
-        <v>10.96527777777778</v>
+        <v>6.760044642857143</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5300636404958092</v>
+        <v>0.05955673040840027</v>
       </c>
       <c r="F7" t="n">
-        <v>96.667</v>
+        <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>6.551724137931035</v>
+        <v>9.133333333333333</v>
       </c>
       <c r="H7" t="n">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="I7" t="n">
-        <v>0.56847930370848</v>
+        <v>0.001469535601849058</v>
       </c>
       <c r="J7" t="n">
-        <v>0.79146718920864</v>
+        <v>0.02318374987617031</v>
       </c>
       <c r="K7" t="n">
-        <v>0.661336554321408</v>
+        <v>0.04399812725667081</v>
       </c>
       <c r="L7" t="n">
-        <v>0.5337298653182031</v>
+        <v>0.03094156909156999</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17109416146688</v>
+        <v>0.1830676365783506</v>
       </c>
       <c r="N7" t="n">
-        <v>0.47166481423584</v>
+        <v>0.07493357990937517</v>
       </c>
       <c r="O7" t="n">
-        <v>0.558145434615552</v>
+        <v>0.1127377118556301</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5251574410004161</v>
+        <v>0.05664393257173065</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.7365823444546561</v>
+        <v>0.03103725737960069</v>
       </c>
       <c r="R7" t="n">
-        <v>0.4341489083061991</v>
+        <v>0.05688078438532616</v>
       </c>
       <c r="S7" t="n">
-        <v>0.365579550996913</v>
+        <v>0.1135993957630158</v>
       </c>
       <c r="T7" t="n">
-        <v>0.400555387243369</v>
+        <v>0.01535030429221905</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
@@ -957,50 +957,50 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Columbia Plateau basaltic-rock aquifers</t>
+          <t>Central Valley aquifer system</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.976967371238029</v>
+        <v>1.275791284342316</v>
       </c>
       <c r="C8" t="n">
-        <v>30.38888888888889</v>
+        <v>68.5</v>
       </c>
       <c r="D8" t="n">
-        <v>13.29074074074074</v>
+        <v>34.27291666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>1.029893487605879</v>
+        <v>0.7306720040936679</v>
       </c>
       <c r="F8" t="n">
-        <v>93.333</v>
+        <v>70</v>
       </c>
       <c r="G8" t="n">
-        <v>4.578947368421052</v>
+        <v>3.476190476190476</v>
       </c>
       <c r="H8" t="n">
-        <v>244.421052631579</v>
+        <v>173</v>
       </c>
       <c r="I8" t="n">
-        <v>0.71929321059456</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J8" t="n">
-        <v>0.91257267874752</v>
+        <v>0.9718491266070073</v>
       </c>
       <c r="K8" t="n">
-        <v>0.417711998261376</v>
+        <v>0.2536155162311629</v>
       </c>
       <c r="L8" t="n">
-        <v>0.449272822807872</v>
+        <v>0.4433398771082422</v>
       </c>
       <c r="M8" t="n">
-        <v>1.46165413348224</v>
+        <v>0.2909296379300391</v>
       </c>
       <c r="N8" t="n">
-        <v>1.64088763666884</v>
+        <v>0.03668395374032331</v>
       </c>
       <c r="O8" t="n">
-        <v>0.77855470715904</v>
+        <v>0.006948274551321956</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.05578192245427201</v>
+        <v>0.00148507135656768</v>
       </c>
       <c r="T8" t="n">
-        <v>0.131870421942336</v>
+        <v>0.180190288980576</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
@@ -1026,65 +1026,65 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Edwards-Trinity aquifer system</t>
+          <t>Coastal Lowlands</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.343028331038346</v>
+        <v>1.708786224515866</v>
       </c>
       <c r="C9" t="n">
-        <v>34.1875</v>
+        <v>22.79166666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>8.091145833333332</v>
+        <v>10.96527777777778</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4033111112171833</v>
+        <v>0.5300636404958092</v>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>93.333</v>
       </c>
       <c r="G9" t="n">
-        <v>4.476190476190476</v>
+        <v>5.571428571428571</v>
       </c>
       <c r="H9" t="n">
-        <v>177.4285714285714</v>
+        <v>187.6428571428571</v>
       </c>
       <c r="I9" t="n">
-        <v>0.287513402942304</v>
+        <v>0.56847930370848</v>
       </c>
       <c r="J9" t="n">
-        <v>0.581672112830787</v>
+        <v>0.79146718920864</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2654045152561152</v>
+        <v>0.661336554321408</v>
       </c>
       <c r="L9" t="n">
-        <v>0.137456769439584</v>
+        <v>0.5337298653182031</v>
       </c>
       <c r="M9" t="n">
-        <v>0.7665121186369921</v>
+        <v>1.17109416146688</v>
       </c>
       <c r="N9" t="n">
-        <v>1.461461902546464</v>
+        <v>0.4403835983232001</v>
       </c>
       <c r="O9" t="n">
-        <v>0.712279694028672</v>
+        <v>0.305985048316416</v>
       </c>
       <c r="P9" t="n">
-        <v>0.313895642582592</v>
+        <v>0.3379439510924149</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.1132886806686432</v>
+        <v>0.1839335495663232</v>
       </c>
       <c r="R9" t="n">
-        <v>0.240314883029424</v>
+        <v>0.353713659597648</v>
       </c>
       <c r="S9" t="n">
-        <v>0.1327124516928336</v>
+        <v>0.249489541327824</v>
       </c>
       <c r="T9" t="n">
-        <v>0.289980366618096</v>
+        <v>0.2703688394553949</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
@@ -1095,65 +1095,65 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Floridan aquifer system</t>
+          <t>Coastal lowlands aquifer system</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.582992630216</v>
+        <v>1.0275617294208</v>
       </c>
       <c r="C10" t="n">
-        <v>35.86666666666667</v>
+        <v>36.53333333333333</v>
       </c>
       <c r="D10" t="n">
-        <v>22.36666666666667</v>
+        <v>10.96527777777778</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4334532986126263</v>
+        <v>0.3742530079065362</v>
       </c>
       <c r="F10" t="n">
-        <v>86.20699999999999</v>
+        <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>4.333333333333333</v>
+        <v>9.9</v>
       </c>
       <c r="H10" t="n">
-        <v>181.6111111111111</v>
+        <v>201.1333333333333</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3809562783050304</v>
+        <v>0.510396435204768</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4982117475979637</v>
+        <v>0.383623045650432</v>
       </c>
       <c r="K10" t="n">
-        <v>0.55537264899648</v>
+        <v>0.5589295934444751</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6011480774666305</v>
+        <v>0.271304839948464</v>
       </c>
       <c r="M10" t="n">
-        <v>0.169139922763392</v>
+        <v>0.4537688131366802</v>
       </c>
       <c r="N10" t="n">
-        <v>0.069972060622464</v>
+        <v>0.47166481423584</v>
       </c>
       <c r="O10" t="n">
-        <v>1.099858036812192</v>
+        <v>0.558145434615552</v>
       </c>
       <c r="P10" t="n">
-        <v>0.078045759925056</v>
+        <v>0.5251574410004161</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.133583024824704</v>
+        <v>0.7365823444546561</v>
       </c>
       <c r="R10" t="n">
-        <v>0.62143018874496</v>
+        <v>0.4341489083061991</v>
       </c>
       <c r="S10" t="n">
-        <v>0.202331797674048</v>
+        <v>0.365579550996913</v>
       </c>
       <c r="T10" t="n">
-        <v>0.542130558852456</v>
+        <v>0.400555387243369</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
@@ -1164,65 +1164,65 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>High Plains aquifer</t>
+          <t>Columbia Plateau basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.6308382127108494</v>
+        <v>3.91428786678912</v>
       </c>
       <c r="C11" t="n">
-        <v>34.0625</v>
+        <v>30.38888888888889</v>
       </c>
       <c r="D11" t="n">
-        <v>6.760044642857143</v>
+        <v>15.18421052631579</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1281503218610104</v>
+        <v>1.035701678586539</v>
       </c>
       <c r="F11" t="n">
-        <v>100</v>
+        <v>76.667</v>
       </c>
       <c r="G11" t="n">
-        <v>9.133333333333333</v>
+        <v>4.578947368421052</v>
       </c>
       <c r="H11" t="n">
-        <v>242</v>
+        <v>244.421052631579</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001469535601849058</v>
+        <v>0.71929321059456</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07671971597899417</v>
+        <v>0.91257267874752</v>
       </c>
       <c r="K11" t="n">
-        <v>0.3543538468655814</v>
+        <v>1.17354073701312</v>
       </c>
       <c r="L11" t="n">
-        <v>0.06199622434172195</v>
+        <v>0.8881069232851201</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1830676365783506</v>
+        <v>1.96990107731424</v>
       </c>
       <c r="N11" t="n">
-        <v>0.3319809865546671</v>
+        <v>2.187075433302144</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2146992370602916</v>
+        <v>1.04468775824448</v>
       </c>
       <c r="P11" t="n">
-        <v>0.05664393257173065</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.03870482514151698</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0.05688078438532616</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1135993957630158</v>
+        <v>0.01924068562081342</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0268878652531776</v>
+        <v>0.099575624731968</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
@@ -1233,65 +1233,65 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Lower Cretaceous aquifers</t>
+          <t>Edwards-Trinity aquifer system</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.193321749564416</v>
+        <v>0.8513378287157903</v>
       </c>
       <c r="C12" t="n">
-        <v>60.66666666666666</v>
+        <v>39.14285714285715</v>
       </c>
       <c r="D12" t="n">
-        <v>29.78703703703703</v>
+        <v>17.19222222222222</v>
       </c>
       <c r="E12" t="n">
-        <v>1.774263382176432</v>
+        <v>0.1473287300879988</v>
       </c>
       <c r="F12" t="n">
-        <v>100</v>
+        <v>96.667</v>
       </c>
       <c r="G12" t="n">
-        <v>8.733333333333333</v>
+        <v>4.96551724137931</v>
       </c>
       <c r="H12" t="n">
-        <v>278</v>
+        <v>224.8965517241379</v>
       </c>
       <c r="I12" t="n">
-        <v>0.02135126479203648</v>
+        <v>0.2781267080965632</v>
       </c>
       <c r="J12" t="n">
-        <v>0.049665483588672</v>
+        <v>0.4035687527911536</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5948848440682559</v>
+        <v>0.24037604741808</v>
       </c>
       <c r="L12" t="n">
-        <v>0.90767952765504</v>
+        <v>0.1560530736629568</v>
       </c>
       <c r="M12" t="n">
-        <v>0.902052403898688</v>
+        <v>0.3858043206608773</v>
       </c>
       <c r="N12" t="n">
-        <v>1.556609225539738</v>
+        <v>0.5223122775214353</v>
       </c>
       <c r="O12" t="n">
-        <v>2.411344858374144</v>
+        <v>0.513811446904728</v>
       </c>
       <c r="P12" t="n">
-        <v>2.403108054035136</v>
+        <v>0.2656051344509073</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.994165973214624</v>
+        <v>0.1532987538640792</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6655501010954881</v>
+        <v>0.1854341159013504</v>
       </c>
       <c r="S12" t="n">
-        <v>0.673664576657184</v>
+        <v>0.251630294930784</v>
       </c>
       <c r="T12" t="n">
-        <v>0.111074529799296</v>
+        <v>0.2834439322837248</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
@@ -1302,65 +1302,65 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mississippi River Valley alluvial aquifer</t>
+          <t>Floridan aquifer system</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.448359131287712</v>
+        <v>1.582992630216</v>
       </c>
       <c r="C13" t="n">
-        <v>30.38888888888889</v>
+        <v>49.72727272727273</v>
       </c>
       <c r="D13" t="n">
-        <v>19.44907407407407</v>
+        <v>35.77272727272727</v>
       </c>
       <c r="E13" t="n">
-        <v>1.170028315360856</v>
+        <v>0.4334532986126263</v>
       </c>
       <c r="F13" t="n">
-        <v>100</v>
+        <v>86.20699999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>9.5</v>
+        <v>3.88</v>
       </c>
       <c r="H13" t="n">
-        <v>166.2777777777778</v>
+        <v>229.6111111111111</v>
       </c>
       <c r="I13" t="n">
-        <v>0.576413198694144</v>
+        <v>0.3809562783050304</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4074037599598849</v>
+        <v>0.4982117475979637</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5320384347242161</v>
+        <v>0.55537264899648</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9893601998202239</v>
+        <v>0.6011480774666305</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8095718482508161</v>
+        <v>0.169139922763392</v>
       </c>
       <c r="N13" t="n">
-        <v>0.424807067345472</v>
+        <v>0.069972060622464</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07788092189762816</v>
+        <v>1.099858036812192</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06507890952998401</v>
+        <v>0.078045759925056</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.176031110551968</v>
+        <v>0.133583024824704</v>
       </c>
       <c r="R13" t="n">
-        <v>0.208203578985024</v>
+        <v>0.62143018874496</v>
       </c>
       <c r="S13" t="n">
-        <v>0.745471568939328</v>
+        <v>0.202331797674048</v>
       </c>
       <c r="T13" t="n">
-        <v>0.22416748442424</v>
+        <v>0.542130558852456</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
@@ -1371,65 +1371,65 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Mississippi embayment aquifer system</t>
+          <t>High Plains aquifer</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.708786224515866</v>
+        <v>0.493283998467456</v>
       </c>
       <c r="C14" t="n">
-        <v>22.75</v>
+        <v>49.81818181818182</v>
       </c>
       <c r="D14" t="n">
-        <v>9.046527777777778</v>
+        <v>28.90909090909091</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5300636404958092</v>
+        <v>0.1784930412723506</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>11.96666666666667</v>
+        <v>9.133333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>163.1851851851852</v>
+        <v>274.6086956521739</v>
       </c>
       <c r="I14" t="n">
-        <v>0.56847930370848</v>
+        <v>0.02081546474740992</v>
       </c>
       <c r="J14" t="n">
-        <v>0.79146718920864</v>
+        <v>0.06869984133841921</v>
       </c>
       <c r="K14" t="n">
-        <v>0.661336554321408</v>
+        <v>0.2896011474084288</v>
       </c>
       <c r="L14" t="n">
-        <v>0.5337298653182031</v>
+        <v>0.04634901451488</v>
       </c>
       <c r="M14" t="n">
-        <v>1.17109416146688</v>
+        <v>0.138093898488084</v>
       </c>
       <c r="N14" t="n">
-        <v>0.4403835983232001</v>
+        <v>0.2687318579990016</v>
       </c>
       <c r="O14" t="n">
-        <v>0.305985048316416</v>
+        <v>0.123164690623632</v>
       </c>
       <c r="P14" t="n">
-        <v>0.426682775264256</v>
+        <v>0.05658134101400615</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.334446877171008</v>
+        <v>0.1060345841740416</v>
       </c>
       <c r="R14" t="n">
-        <v>0.782170202132928</v>
+        <v>0.04452767494156801</v>
       </c>
       <c r="S14" t="n">
-        <v>0.305577285725376</v>
+        <v>0.1083845199862052</v>
       </c>
       <c r="T14" t="n">
-        <v>0.291876462666432</v>
+        <v>0.0268878652531776</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
@@ -1440,65 +1440,65 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Northern Atlantic Coastal Plain aquifer system</t>
+          <t>Lower Cretaceous aquifers</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.769605070861888</v>
+        <v>4.193321749564416</v>
       </c>
       <c r="C15" t="n">
-        <v>35.8</v>
+        <v>60.66666666666666</v>
       </c>
       <c r="D15" t="n">
-        <v>13.58126984126984</v>
+        <v>31.78571428571428</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6463243861869459</v>
+        <v>1.774263382176432</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>8.482758620689655</v>
+        <v>6.107142857142857</v>
       </c>
       <c r="H15" t="n">
-        <v>214</v>
+        <v>269.16</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9012807916110277</v>
+        <v>0.009830340544792392</v>
       </c>
       <c r="J15" t="n">
-        <v>0.394116136326528</v>
+        <v>0.06869984133841921</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9894466577530612</v>
+        <v>0.558797854761216</v>
       </c>
       <c r="L15" t="n">
-        <v>1.27405421570448</v>
+        <v>0.843823905898176</v>
       </c>
       <c r="M15" t="n">
-        <v>0.417385788188544</v>
+        <v>0.8580140440663682</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8269425346291199</v>
+        <v>1.542321224349696</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6768859011264</v>
+        <v>2.394402322716432</v>
       </c>
       <c r="P15" t="n">
-        <v>0.29277354036672</v>
+        <v>2.281676354423424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.34198444163824</v>
+        <v>0.994165973214624</v>
       </c>
       <c r="R15" t="n">
-        <v>0.270101940304896</v>
+        <v>0.487113191256384</v>
       </c>
       <c r="S15" t="n">
-        <v>0.443319488978688</v>
+        <v>0.673664576657184</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5740555895314037</v>
+        <v>0.1100958995808</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
@@ -1509,65 +1509,65 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
+          <t>Mississippi River Valley alluvial aquifer</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.067044798593216</v>
+        <v>8.030819846965795</v>
       </c>
       <c r="C16" t="n">
-        <v>32.1764705882353</v>
+        <v>36.46666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>20.1078431372549</v>
+        <v>24.77777777777778</v>
       </c>
       <c r="E16" t="n">
-        <v>0.831552193634496</v>
+        <v>3.984095902609924</v>
       </c>
       <c r="F16" t="n">
-        <v>73.333</v>
+        <v>96.667</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>3.620689655172414</v>
       </c>
       <c r="H16" t="n">
-        <v>253.6470588235294</v>
+        <v>209.1052631578947</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.73160159737696</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.4074037599598849</v>
       </c>
       <c r="K16" t="n">
-        <v>7.339726638720001e-05</v>
+        <v>0.6047934750305279</v>
       </c>
       <c r="L16" t="n">
-        <v>0.07376425271913602</v>
+        <v>1.7309521989648</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5165008810529845</v>
+        <v>3.803980142485702</v>
       </c>
       <c r="N16" t="n">
-        <v>0.6573433424210829</v>
+        <v>4.39350599759232</v>
       </c>
       <c r="O16" t="n">
-        <v>0.165062296852992</v>
+        <v>4.3793702277696</v>
       </c>
       <c r="P16" t="n">
-        <v>0.0133583024824704</v>
+        <v>15.43299854568192</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.99453295954656</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.14622064341344</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>0.9076795276550401</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.92545495489088</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
@@ -1578,65 +1578,65 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basaltic-rock aquifers</t>
+          <t>Mississippi embayment aquifer system</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.324832891166691</v>
+        <v>1.708786224515866</v>
       </c>
       <c r="C17" t="n">
-        <v>42.5</v>
+        <v>28.63157894736842</v>
       </c>
       <c r="D17" t="n">
-        <v>20.77777777777778</v>
+        <v>8.065789473684211</v>
       </c>
       <c r="E17" t="n">
-        <v>1.006105261880275</v>
+        <v>0.5300636404958092</v>
       </c>
       <c r="F17" t="n">
-        <v>66.667</v>
+        <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>2.25</v>
+        <v>12.6</v>
       </c>
       <c r="H17" t="n">
-        <v>247.05</v>
+        <v>168.2333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.06965400580145281</v>
+        <v>0.56847930370848</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2627744465439072</v>
+        <v>0.79146718920864</v>
       </c>
       <c r="K17" t="n">
-        <v>0.488010268956672</v>
+        <v>0.661336554321408</v>
       </c>
       <c r="L17" t="n">
-        <v>0.1837486971917184</v>
+        <v>0.5337298653182031</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5928196464748123</v>
+        <v>1.17109416146688</v>
       </c>
       <c r="N17" t="n">
-        <v>0.8472491116629121</v>
+        <v>1.461461902546464</v>
       </c>
       <c r="O17" t="n">
-        <v>0.219947141606976</v>
+        <v>0.712279694028672</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.426682775264256</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>0.334446877171008</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>0.782170202132928</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.249489541327824</v>
       </c>
       <c r="T17" t="n">
-        <v>0.0016392056159808</v>
+        <v>0.291876462666432</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
@@ -1647,65 +1647,65 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Pacific Northwest basin-fill aquifers</t>
+          <t>Northern Atlantic Coastal Plain aquifer system</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.66439628271616</v>
+        <v>2.769605070861888</v>
       </c>
       <c r="C18" t="n">
-        <v>21.07692307692308</v>
+        <v>35.8</v>
       </c>
       <c r="D18" t="n">
-        <v>7.573456790123457</v>
+        <v>13.58126984126984</v>
       </c>
       <c r="E18" t="n">
-        <v>0.5570731700242987</v>
+        <v>0.6463243861869459</v>
       </c>
       <c r="F18" t="n">
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>8.366666666666667</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>115.4074074074074</v>
+        <v>214</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8629615635043201</v>
+        <v>0.9012807916110277</v>
       </c>
       <c r="J18" t="n">
-        <v>0.63803195138016</v>
+        <v>0.394116136326528</v>
       </c>
       <c r="K18" t="n">
-        <v>0.3832968355776</v>
+        <v>0.9894466577530612</v>
       </c>
       <c r="L18" t="n">
-        <v>0.61898361319872</v>
+        <v>1.27405421570448</v>
       </c>
       <c r="M18" t="n">
-        <v>0.06562938902788801</v>
+        <v>0.417385788188544</v>
       </c>
       <c r="N18" t="n">
-        <v>0.08665325752864582</v>
+        <v>0.8269425346291199</v>
       </c>
       <c r="O18" t="n">
-        <v>0.11468322873</v>
+        <v>0.6768859011264</v>
       </c>
       <c r="P18" t="n">
-        <v>0.119148229101888</v>
+        <v>0.29277354036672</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.04330438716844801</v>
+        <v>2.34198444163824</v>
       </c>
       <c r="R18" t="n">
-        <v>0.10214452905552</v>
+        <v>0.270101940304896</v>
       </c>
       <c r="S18" t="n">
-        <v>0.41661686444544</v>
+        <v>0.443319488978688</v>
       </c>
       <c r="T18" t="n">
-        <v>0.74158423223808</v>
+        <v>0.5740555895314037</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
@@ -1716,65 +1716,65 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
+          <t>Northern High Plaisn</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.769605070861888</v>
+        <v>0.6308382127108494</v>
       </c>
       <c r="C19" t="n">
-        <v>35.8</v>
+        <v>23.73913043478261</v>
       </c>
       <c r="D19" t="n">
-        <v>13.58126984126984</v>
+        <v>5.750862663906142</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6463243861869459</v>
+        <v>0.1281503218610104</v>
       </c>
       <c r="F19" t="n">
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>6.307692307692307</v>
+        <v>4.92</v>
       </c>
       <c r="H19" t="n">
-        <v>214</v>
+        <v>238.8666666666667</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9012807916110277</v>
+        <v>0.0010642603626144</v>
       </c>
       <c r="J19" t="n">
-        <v>0.394116136326528</v>
+        <v>0.07671971597899417</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9894466577530612</v>
+        <v>0.3543538468655814</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27405421570448</v>
+        <v>0.06199622434172195</v>
       </c>
       <c r="M19" t="n">
-        <v>0.417385788188544</v>
+        <v>0.1571525610343767</v>
       </c>
       <c r="N19" t="n">
-        <v>0.8269425346291199</v>
+        <v>0.3319809865546671</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6768859011264</v>
+        <v>0.2146992370602916</v>
       </c>
       <c r="P19" t="n">
-        <v>0.29277354036672</v>
+        <v>0.05250045300287784</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.34198444163824</v>
+        <v>0.03870482514151698</v>
       </c>
       <c r="R19" t="n">
-        <v>0.285305659770816</v>
+        <v>0.02716223122514904</v>
       </c>
       <c r="S19" t="n">
-        <v>0.443319488978688</v>
+        <v>0.0191811522825216</v>
       </c>
       <c r="T19" t="n">
-        <v>0.5740555895314037</v>
+        <v>0.0268878652531776</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
@@ -1785,53 +1785,53 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Rio Grande aquifer system</t>
+          <t>Northern Rocky Mountains Intermontane Basins aquifer system</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.1034152192298484</v>
+        <v>1.324832891166691</v>
       </c>
       <c r="C20" t="n">
-        <v>34.1875</v>
+        <v>45.5</v>
       </c>
       <c r="D20" t="n">
-        <v>20.59270833333333</v>
+        <v>26.81944444444444</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06770836659830544</v>
+        <v>1.006105261880275</v>
       </c>
       <c r="F20" t="n">
-        <v>53.333</v>
+        <v>83.333</v>
       </c>
       <c r="G20" t="n">
-        <v>2.3125</v>
+        <v>2.7</v>
       </c>
       <c r="H20" t="n">
-        <v>240.6875</v>
+        <v>249.7619047619048</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.05175852896848035</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.09092575688823663</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0197089135789248</v>
+        <v>0.0529928263315585</v>
       </c>
       <c r="M20" t="n">
-        <v>0.04392744840755712</v>
+        <v>0.5928196464748123</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0587830551243264</v>
+        <v>0.8472491116629121</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0760762666103328</v>
+        <v>0.219947141606976</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0002201917991616</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.001268549420725449</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -1854,65 +1854,65 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Silurian-Devonian aquifers</t>
+          <t>Pacific Northwest basaltic-rock aquifers</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.927534544105184</v>
+        <v>5.197613827123201</v>
       </c>
       <c r="C21" t="n">
-        <v>27.3</v>
+        <v>49.45454545454545</v>
       </c>
       <c r="D21" t="n">
-        <v>13.86666666666667</v>
+        <v>14.84333333333333</v>
       </c>
       <c r="E21" t="n">
-        <v>1.107870571726128</v>
+        <v>1.64233988637304</v>
       </c>
       <c r="F21" t="n">
         <v>100</v>
       </c>
       <c r="G21" t="n">
-        <v>4.8</v>
+        <v>7.4</v>
       </c>
       <c r="H21" t="n">
-        <v>234.35</v>
+        <v>243.2413793103448</v>
       </c>
       <c r="I21" t="n">
-        <v>0.158064071384268</v>
+        <v>0.8629615635043201</v>
       </c>
       <c r="J21" t="n">
-        <v>0.204533715665664</v>
+        <v>2.058548664606336</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2681039036088</v>
+        <v>1.85695083959616</v>
       </c>
       <c r="L21" t="n">
-        <v>1.364059966088271</v>
+        <v>2.06456025023424</v>
       </c>
       <c r="M21" t="n">
-        <v>0.68574017453184</v>
+        <v>2.455694600548713</v>
       </c>
       <c r="N21" t="n">
-        <v>0.45370384296384</v>
+        <v>2.3188099343808</v>
       </c>
       <c r="O21" t="n">
-        <v>0.88525258514784</v>
+        <v>0.35108359088544</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7203533933312641</v>
+        <v>0.0022683250421568</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.4476417724437121</v>
+        <v>0.004648493537856</v>
       </c>
       <c r="R21" t="n">
-        <v>0.356221399532544</v>
+        <v>0.016228951123392</v>
       </c>
       <c r="S21" t="n">
-        <v>0.0545994109402563</v>
+        <v>0.53335346908032</v>
       </c>
       <c r="T21" t="n">
-        <v>0.09468247363948801</v>
+        <v>0.8300007540619201</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -1923,65 +1923,65 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Snake River Plain basaltic-rock aquifers</t>
+          <t>Pacific Northwest basin-fill aquifers</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.596291625007344</v>
+        <v>1.451527518157389</v>
       </c>
       <c r="C22" t="n">
-        <v>54.7</v>
+        <v>49.45454545454545</v>
       </c>
       <c r="D22" t="n">
-        <v>28.63333333333333</v>
+        <v>32.73076923076923</v>
       </c>
       <c r="E22" t="n">
-        <v>0.292984217705424</v>
+        <v>1.11625331215035</v>
       </c>
       <c r="F22" t="n">
-        <v>63.333</v>
+        <v>100</v>
       </c>
       <c r="G22" t="n">
-        <v>4.416666666666667</v>
+        <v>6.566666666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>237.8333333333333</v>
+        <v>250.9230769230769</v>
       </c>
       <c r="I22" t="n">
-        <v>0.1509353618864112</v>
+        <v>0.442585516314816</v>
       </c>
       <c r="J22" t="n">
-        <v>0.264597145325856</v>
+        <v>0.6624357358905381</v>
       </c>
       <c r="K22" t="n">
-        <v>0.5079906359176319</v>
+        <v>0.5786819270179854</v>
       </c>
       <c r="L22" t="n">
-        <v>0.182636864526816</v>
+        <v>0.619717585862592</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1029785889008291</v>
+        <v>0.668587932398736</v>
       </c>
       <c r="N22" t="n">
-        <v>0.2029679073160704</v>
+        <v>0.9082120176268688</v>
       </c>
       <c r="O22" t="n">
-        <v>0.024832741794336</v>
+        <v>0.27401646117888</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>0.004770822315168</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>0.010030959739584</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>0.024535657620864</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.1988576603983872</v>
       </c>
       <c r="T22" t="n">
-        <v>0.009289647349073298</v>
+        <v>0.4141563084675072</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
@@ -1992,65 +1992,65 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Southeastern Coastal Plain aquifer system</t>
+          <t>Piedmont and Blue Ridge crystalline-rock aquifers</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.63160375624784</v>
+        <v>2.769605070861888</v>
       </c>
       <c r="C23" t="n">
-        <v>32</v>
+        <v>21.07692307692308</v>
       </c>
       <c r="D23" t="n">
-        <v>7.553081232492997</v>
+        <v>4.248174603174602</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3945072694159811</v>
+        <v>0.6463243861869459</v>
       </c>
       <c r="F23" t="n">
-        <v>93.333</v>
+        <v>100</v>
       </c>
       <c r="G23" t="n">
-        <v>5.5</v>
+        <v>12.3</v>
       </c>
       <c r="H23" t="n">
-        <v>173.3333333333333</v>
+        <v>185.9</v>
       </c>
       <c r="I23" t="n">
-        <v>0.543087344646432</v>
+        <v>0.9012807916110277</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5639500550291803</v>
+        <v>0.394116136326528</v>
       </c>
       <c r="K23" t="n">
-        <v>0.4930879862745701</v>
+        <v>0.9894466577530612</v>
       </c>
       <c r="L23" t="n">
-        <v>0.382032771545376</v>
+        <v>1.27405421570448</v>
       </c>
       <c r="M23" t="n">
-        <v>0.81124367487408</v>
+        <v>0.417385788188544</v>
       </c>
       <c r="N23" t="n">
-        <v>0.260193309342624</v>
+        <v>0.8269425346291199</v>
       </c>
       <c r="O23" t="n">
-        <v>0.517573056807072</v>
+        <v>0.6768859011264</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1074780637463232</v>
+        <v>0.29277354036672</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.397385033098032</v>
+        <v>2.34198444163824</v>
       </c>
       <c r="R23" t="n">
-        <v>0.6480326201844097</v>
+        <v>0.285305659770816</v>
       </c>
       <c r="S23" t="n">
-        <v>0.595985803064064</v>
+        <v>0.3608698930704</v>
       </c>
       <c r="T23" t="n">
-        <v>0.5371273118603952</v>
+        <v>0.5740555895314037</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
@@ -2061,65 +2061,65 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Surficial aquifer system</t>
+          <t>Rio Grande aquifer system</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1.687293058342147</v>
+        <v>0.0936640865683656</v>
       </c>
       <c r="C24" t="n">
-        <v>36.26666666666667</v>
+        <v>34.1875</v>
       </c>
       <c r="D24" t="n">
-        <v>19.63333333333333</v>
+        <v>16.515625</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7159467030098948</v>
+        <v>0.0477979309217088</v>
       </c>
       <c r="F24" t="n">
-        <v>73.333</v>
+        <v>56.667</v>
       </c>
       <c r="G24" t="n">
-        <v>4.684210526315789</v>
+        <v>3.294117647058823</v>
       </c>
       <c r="H24" t="n">
-        <v>254.8181818181818</v>
+        <v>248.2941176470588</v>
       </c>
       <c r="I24" t="n">
-        <v>0.730687262424192</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.6143623038336</v>
+        <v>0.0025322056903584</v>
       </c>
       <c r="K24" t="n">
-        <v>0.616668776335739</v>
+        <v>0.0022182284952576</v>
       </c>
       <c r="L24" t="n">
-        <v>0.9509227504348321</v>
+        <v>0.0154623574522368</v>
       </c>
       <c r="M24" t="n">
-        <v>0.110952201021984</v>
+        <v>0.0484666615710144</v>
       </c>
       <c r="N24" t="n">
-        <v>0.03945103068312</v>
+        <v>0.0551050365531456</v>
       </c>
       <c r="O24" t="n">
-        <v>1.625912555512896</v>
+        <v>0.0478794834399168</v>
       </c>
       <c r="P24" t="n">
-        <v>0.0747265724339904</v>
+        <v>0.00147283847883648</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1097431849395504</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1323108055406592</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0.07503647200318081</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0.46362606601248</v>
+        <v>0</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
@@ -2130,65 +2130,65 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Valley and Ridge aquifers</t>
+          <t>Sacramento River Basin</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2.568822771033792</v>
+        <v>0.7513107292430209</v>
       </c>
       <c r="C25" t="n">
-        <v>21</v>
+        <v>36.13333333333333</v>
       </c>
       <c r="D25" t="n">
-        <v>4.23138888888889</v>
+        <v>14.42222222222222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.6072631571235937</v>
+        <v>0.2902481307195456</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>6.966666666666667</v>
+        <v>2.6</v>
       </c>
       <c r="H25" t="n">
-        <v>184.1851851851852</v>
+        <v>159</v>
       </c>
       <c r="I25" t="n">
-        <v>0.688140148639104</v>
+        <v>0.487194743774592</v>
       </c>
       <c r="J25" t="n">
-        <v>0.342275918918976</v>
+        <v>0.3289976861816553</v>
       </c>
       <c r="K25" t="n">
-        <v>1.02375594523776</v>
+        <v>0.205675450920576</v>
       </c>
       <c r="L25" t="n">
-        <v>1.18949444838756</v>
+        <v>0.129148606647144</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4099126119745746</v>
+        <v>0.1003585289067648</v>
       </c>
       <c r="N25" t="n">
-        <v>0.3639281125032</v>
+        <v>0.00366986331936</v>
       </c>
       <c r="O25" t="n">
-        <v>0.5423242460832</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0.45995620269312</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.59418560419648</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.24098769130464</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0.3501661250556</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.44323793646048</v>
+        <v>0.180190288980576</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
@@ -2199,67 +2199,550 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
+          <t>San Joaquin River Basin</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1.275791284342316</v>
+      </c>
+      <c r="C26" t="n">
+        <v>68.5</v>
+      </c>
+      <c r="D26" t="n">
+        <v>34.27291666666667</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.7306720040936679</v>
+      </c>
+      <c r="F26" t="n">
+        <v>26.667</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="H26" t="n">
+        <v>173</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.3866690322055024</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.9718491266070073</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2536155162311629</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4433398771082422</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.2909296379300391</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.03668395374032331</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.006948274551321956</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.0434634145789544</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Silurian-Devonian aquifers</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4.671376215023774</v>
+      </c>
+      <c r="C27" t="n">
+        <v>31.88235294117647</v>
+      </c>
+      <c r="D27" t="n">
+        <v>16.03205128205128</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2.099401679021591</v>
+      </c>
+      <c r="F27" t="n">
+        <v>100</v>
+      </c>
+      <c r="G27" t="n">
+        <v>12</v>
+      </c>
+      <c r="H27" t="n">
+        <v>234.35</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.308165124762634</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.36379974025888</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.80312617757888</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.6496909397504</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.755973994324073</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.49336630356184</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2.31830508545856</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.8900551185216</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.5994110088288001</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.31010345048592</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.31642377064704</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.7217397861408</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Snake River Plain basaltic-rock aquifers</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1.240391560347805</v>
+      </c>
+      <c r="C28" t="n">
+        <v>49.45454545454545</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20.77777777777778</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.4010855580459909</v>
+      </c>
+      <c r="F28" t="n">
+        <v>42.857</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.636363636363636</v>
+      </c>
+      <c r="H28" t="n">
+        <v>217.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.442585516314816</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.2627744465439072</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.488010268956672</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.619717585862592</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.489280158168768</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.19511439981264</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.012416370897168</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.0550479497904</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Southeastern Coastal Plain aquifer system</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>7.07610812361264</v>
+      </c>
+      <c r="C29" t="n">
+        <v>30.38888888888889</v>
+      </c>
+      <c r="D29" t="n">
+        <v>14.575</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4.277388803750496</v>
+      </c>
+      <c r="F29" t="n">
+        <v>100</v>
+      </c>
+      <c r="G29" t="n">
+        <v>11.83333333333333</v>
+      </c>
+      <c r="H29" t="n">
+        <v>175.2</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.791871930066176</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2.7541450434816</v>
+      </c>
+      <c r="K29" t="n">
+        <v>5.922180767228545</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.75331495534984</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3.31538170688256</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.260193309342624</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.517573056807072</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.181291247976384</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.397385033098032</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.285305659770816</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.595985803064064</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.07526995257248</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Surficial aquifer system</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1.687293058342147</v>
+      </c>
+      <c r="C30" t="n">
+        <v>36.26666666666667</v>
+      </c>
+      <c r="D30" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7159467030098948</v>
+      </c>
+      <c r="F30" t="n">
+        <v>93.333</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.714285714285714</v>
+      </c>
+      <c r="H30" t="n">
+        <v>254.8181818181818</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.730687262424192</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.6143623038336</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.616668776335739</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.9509227504348321</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.1496154343792149</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1597332475506903</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.625912555512896</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.246370157506368</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.62815827149712</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.6480326201844097</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.215288861766935</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.5371273118603952</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Texas Gulf Coast</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0275617294208</v>
+      </c>
+      <c r="C31" t="n">
+        <v>36.53333333333333</v>
+      </c>
+      <c r="D31" t="n">
+        <v>10.72452380952381</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.3742530079065362</v>
+      </c>
+      <c r="F31" t="n">
+        <v>96.667</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.551724137931035</v>
+      </c>
+      <c r="H31" t="n">
+        <v>202</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.510396435204768</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.383623045650432</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.5589295934444751</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.2260880462280384</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.4537688131366802</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.47166481423584</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.558145434615552</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.5251574410004161</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.7365823444546561</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.4341489083061991</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.365579550996913</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.400555387243369</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Valley and Ridge aquifers</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>2.568822771033792</v>
+      </c>
+      <c r="C32" t="n">
+        <v>21</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4.23138888888889</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.6072631571235937</v>
+      </c>
+      <c r="F32" t="n">
+        <v>100</v>
+      </c>
+      <c r="G32" t="n">
+        <v>8.733333333333333</v>
+      </c>
+      <c r="H32" t="n">
+        <v>182.8666666666667</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.688140148639104</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.342275918918976</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1.02375594523776</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.18949444838756</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.4099126119745746</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.3639281125032</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.5423242460832</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.45995620269312</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.59418560419648</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.24098769130464</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.3501661250556</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.44323793646048</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
           <t>Willamette Lowland basin-fill aquifers</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>1.66439628271616</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>20.07407407407407</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>7.573456790123457</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E33" t="n">
         <v>0.5570731700242987</v>
       </c>
-      <c r="F26" t="n">
-        <v>90</v>
-      </c>
-      <c r="G26" t="n">
-        <v>2.666666666666667</v>
-      </c>
-      <c r="H26" t="n">
+      <c r="F33" t="n">
+        <v>100</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H33" t="n">
         <v>115.4074074074074</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>0.8629615635043201</v>
       </c>
-      <c r="J26" t="n">
+      <c r="J33" t="n">
         <v>0.63803195138016</v>
       </c>
-      <c r="K26" t="n">
+      <c r="K33" t="n">
         <v>0.3832968355776</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>0.61898361319872</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="M33" t="n">
+        <v>0.01287388052431488</v>
+      </c>
+      <c r="N33" t="n">
         <v>0.05137808647104</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.0001712602882368</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.0155398323445344</v>
+      </c>
+      <c r="S33" t="n">
         <v>0.41661686444544</v>
       </c>
-      <c r="T26" t="n">
+      <c r="T33" t="n">
         <v>0.74158423223808</v>
       </c>
-      <c r="U26" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>max</t>
         </is>
